--- a/TaskgraphsEdgeDetect/Results.xlsx
+++ b/TaskgraphsEdgeDetect/Results.xlsx
@@ -5,30 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\ClavaExperiments\TaskgraphsEdgeDetect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565CC60-B3B2-437C-9BA5-09F5C3F2AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54113B-5728-4EED-9D4E-B4C3E0F447F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Individual Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="Whole Application" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>edge_detect_tasks_V0.c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>rgbToGrayscale</t>
   </si>
@@ -39,9 +49,6 @@
     <t>combthreshold</t>
   </si>
   <si>
-    <t>edge_detect_tasks_V0_const.c</t>
-  </si>
-  <si>
     <t>convolve2d_smooth</t>
   </si>
   <si>
@@ -51,24 +58,12 @@
     <t>convolve2d_horiz</t>
   </si>
   <si>
-    <t>edge_detect_tasks_V1.c</t>
-  </si>
-  <si>
     <t>horizontal_and_vertical_filtering_task</t>
   </si>
   <si>
-    <t>edge_detect_tasks_V1_const.c</t>
-  </si>
-  <si>
-    <t>edge_detect_tasks_V2.c</t>
-  </si>
-  <si>
     <t>convolve2d_parallel</t>
   </si>
   <si>
-    <t>edge_detect_tasks_V2_const.c</t>
-  </si>
-  <si>
     <t>convolve2d_vert_horiz</t>
   </si>
   <si>
@@ -84,14 +79,74 @@
     <t>Latency</t>
   </si>
   <si>
-    <t>Freq</t>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>BRAM</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>v0</t>
+  </si>
+  <si>
+    <t>v0c</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v1c</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v2c</t>
+  </si>
+  <si>
+    <t>Optimizations</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Basic pipelining of width loop, full unroll of filter loops</t>
+  </si>
+  <si>
+    <t>v0ce</t>
+  </si>
+  <si>
+    <t>v1ce</t>
+  </si>
+  <si>
+    <t>v2ce</t>
+  </si>
+  <si>
+    <t>v0e</t>
+  </si>
+  <si>
+    <t>v1e</t>
+  </si>
+  <si>
+    <t>v2e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,34 +318,140 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F8F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -553,402 +726,2374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="32"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="23"/>
+    <col min="8" max="9" width="9.140625" style="15"/>
+    <col min="10" max="10" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="I1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>786595</v>
+      </c>
+      <c r="F2" s="3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G2" s="22">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1.7089464249999999E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4682045</v>
+      </c>
+      <c r="F3" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3.0094238975817899E-3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2.3046319345661401E-2</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>524435</v>
+      </c>
+      <c r="F4" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G4" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>786595</v>
+      </c>
+      <c r="F5" s="3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H5" s="17">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="32">
+        <v>8.5449128000000003E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2341072</v>
+      </c>
+      <c r="F6" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.68807788051209E-3</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4.2085259601706898E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="32">
+        <v>8.5449091500000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2341071</v>
+      </c>
+      <c r="F7" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1.6158428165007101E-3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4.0251600284495004E-3</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8.5449091500000001E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2341071</v>
+      </c>
+      <c r="F8" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1.5980618776671399E-3</v>
+      </c>
+      <c r="H8" s="15">
+        <v>4.0251600284495004E-3</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>524435</v>
+      </c>
+      <c r="F9" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G9" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>786595</v>
+      </c>
+      <c r="F10" s="3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D11" s="32">
+        <v>1.7089464249999999E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4682045</v>
+      </c>
+      <c r="F11" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G11" s="23">
+        <v>3.0094238975817899E-3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2.3046319345661401E-2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.3170896547</v>
+      </c>
+      <c r="E12" s="4">
+        <v>86873878</v>
+      </c>
+      <c r="F12" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1.0965282716927399E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>8.3440389402560405E-2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>524435</v>
+      </c>
+      <c r="F13" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E14" s="2">
         <v>786595</v>
       </c>
-      <c r="E2" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="13" t="s">
+      <c r="F14" s="3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G14" s="22">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="32">
+        <v>8.5449128000000003E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2341072</v>
+      </c>
+      <c r="F15" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.68807788051209E-3</v>
+      </c>
+      <c r="H15" s="15">
+        <v>4.2085259601706898E-3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1.7089774499999998E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4682130</v>
+      </c>
+      <c r="F16" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G16" s="23">
+        <v>2.7293741109530498E-3</v>
+      </c>
+      <c r="H16" s="15">
+        <v>6.90122688477951E-3</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.7089464249999999E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4682045</v>
-      </c>
-      <c r="E3" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="14" t="s">
+      <c r="D17" s="33">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>524435</v>
+      </c>
+      <c r="F17" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>786595</v>
+      </c>
+      <c r="F18" s="3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G18" s="22">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D19" s="32">
+        <v>8.5449128000000003E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2341072</v>
+      </c>
+      <c r="F19" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1.68807788051209E-3</v>
+      </c>
+      <c r="H19" s="15">
+        <v>4.2085259601706898E-3</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="32">
+        <v>8.5455332999999998E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2341242</v>
+      </c>
+      <c r="F20" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G20" s="23">
+        <v>4.4524582147937404E-3</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4.3349928876244601E-2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="33">
         <v>1.91418775E-3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E21" s="6">
         <v>524435</v>
       </c>
-      <c r="E4" s="10">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F21" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G21" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>786595</v>
+      </c>
+      <c r="F22" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G22" s="23">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="32">
+        <v>8.5449128000000003E-3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2341072</v>
+      </c>
+      <c r="F23" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1.68807788051209E-3</v>
+      </c>
+      <c r="H23" s="15">
+        <v>4.2085259601706898E-3</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32">
+        <v>8.5449128000000003E-3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2341072</v>
+      </c>
+      <c r="F24" s="5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G24" s="23">
+        <v>2.52656027738264E-3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>6.1477596017069699E-3</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="33">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>524435</v>
+      </c>
+      <c r="F25" s="7">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G25" s="24">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="42">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E26" s="43">
+        <v>786595</v>
+      </c>
+      <c r="F26" s="44">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G26" s="45">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H26" s="46">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I26" s="46">
+        <v>0</v>
+      </c>
+      <c r="J26" s="47">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="51">
+        <v>8.5459968499999994E-3</v>
+      </c>
+      <c r="E27" s="52">
+        <v>2341369</v>
+      </c>
+      <c r="F27" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G27" s="54">
+        <v>8.7687811166429503E-3</v>
+      </c>
+      <c r="H27" s="55">
+        <v>6.4569256756756704E-2</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0</v>
+      </c>
+      <c r="J27" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="51">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E28" s="52">
+        <v>524435</v>
+      </c>
+      <c r="F28" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G28" s="54">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H28" s="55">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="J28" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="51">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E29" s="52">
+        <v>786595</v>
+      </c>
+      <c r="F29" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G29" s="54">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H29" s="55">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0</v>
+      </c>
+      <c r="J29" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="51">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E30" s="52">
+        <v>2341043</v>
+      </c>
+      <c r="F30" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G30" s="54">
+        <v>9.61837660028449E-4</v>
+      </c>
+      <c r="H30" s="55">
+        <v>2.9483019203413899E-3</v>
+      </c>
+      <c r="I30" s="55">
+        <v>0</v>
+      </c>
+      <c r="J30" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D31" s="51">
+        <v>8.5448033000000007E-3</v>
+      </c>
+      <c r="E31" s="52">
+        <v>2341042</v>
+      </c>
+      <c r="F31" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G31" s="54">
+        <v>8.9571479374110901E-4</v>
+      </c>
+      <c r="H31" s="55">
+        <v>2.7049253200568898E-3</v>
+      </c>
+      <c r="I31" s="55">
+        <v>0</v>
+      </c>
+      <c r="J31" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="51">
+        <v>8.5448033000000007E-3</v>
+      </c>
+      <c r="E32" s="52">
+        <v>2341042</v>
+      </c>
+      <c r="F32" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G32" s="54">
+        <v>8.7793385490753898E-4</v>
+      </c>
+      <c r="H32" s="55">
+        <v>2.7782716927453699E-3</v>
+      </c>
+      <c r="I32" s="55">
+        <v>0</v>
+      </c>
+      <c r="J32" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="51">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E33" s="52">
+        <v>524435</v>
+      </c>
+      <c r="F33" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G33" s="54">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H33" s="55">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I33" s="55">
+        <v>0</v>
+      </c>
+      <c r="J33" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="51">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E34" s="52">
+        <v>786595</v>
+      </c>
+      <c r="F34" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G34" s="54">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H34" s="55">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I34" s="55">
+        <v>0</v>
+      </c>
+      <c r="J34" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D35" s="51">
+        <v>8.5459968499999994E-3</v>
+      </c>
+      <c r="E35" s="52">
+        <v>2341369</v>
+      </c>
+      <c r="F35" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G35" s="54">
+        <v>8.7687811166429503E-3</v>
+      </c>
+      <c r="H35" s="55">
+        <v>6.4569256756756704E-2</v>
+      </c>
+      <c r="I35" s="55">
+        <v>0</v>
+      </c>
+      <c r="J35" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="51">
+        <v>0.31709070589999999</v>
+      </c>
+      <c r="E36" s="52">
+        <v>86874166</v>
+      </c>
+      <c r="F36" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G36" s="54">
+        <v>9.0182699146514906E-3</v>
+      </c>
+      <c r="H36" s="55">
+        <v>6.5546097083926003E-2</v>
+      </c>
+      <c r="I36" s="55">
+        <v>0</v>
+      </c>
+      <c r="J36" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="51">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E37" s="52">
+        <v>524435</v>
+      </c>
+      <c r="F37" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G37" s="54">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H37" s="55">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I37" s="55">
+        <v>0</v>
+      </c>
+      <c r="J37" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="51">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E38" s="52">
         <v>786595</v>
       </c>
-      <c r="E5" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8.5449128000000003E-3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2341072</v>
-      </c>
-      <c r="E6" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13" t="s">
+      <c r="F38" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G38" s="54">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H38" s="55">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0</v>
+      </c>
+      <c r="J38" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="51">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E39" s="52">
+        <v>2341043</v>
+      </c>
+      <c r="F39" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G39" s="54">
+        <v>9.61837660028449E-4</v>
+      </c>
+      <c r="H39" s="55">
+        <v>2.9483019203413899E-3</v>
+      </c>
+      <c r="I39" s="55">
+        <v>0</v>
+      </c>
+      <c r="J39" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>8.5449091500000001E-3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2341071</v>
-      </c>
-      <c r="E7" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="13" t="s">
+      <c r="D40" s="51">
+        <v>1.7089617549999998E-2</v>
+      </c>
+      <c r="E40" s="52">
+        <v>4682087</v>
+      </c>
+      <c r="F40" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G40" s="54">
+        <v>1.29578591749644E-3</v>
+      </c>
+      <c r="H40" s="55">
+        <v>4.2785384068278797E-3</v>
+      </c>
+      <c r="I40" s="55">
+        <v>0</v>
+      </c>
+      <c r="J40" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="51">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E41" s="52">
+        <v>524435</v>
+      </c>
+      <c r="F41" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G41" s="54">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H41" s="55">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I41" s="55">
+        <v>0</v>
+      </c>
+      <c r="J41" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="51">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E42" s="52">
+        <v>786595</v>
+      </c>
+      <c r="F42" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G42" s="54">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H42" s="55">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I42" s="55">
+        <v>0</v>
+      </c>
+      <c r="J42" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="51">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E43" s="52">
+        <v>2341043</v>
+      </c>
+      <c r="F43" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G43" s="54">
+        <v>9.61837660028449E-4</v>
+      </c>
+      <c r="H43" s="55">
+        <v>2.9483019203413899E-3</v>
+      </c>
+      <c r="I43" s="55">
+        <v>0</v>
+      </c>
+      <c r="J43" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>8.5449091500000001E-3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2341071</v>
-      </c>
-      <c r="E8" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14" t="s">
+      <c r="D44" s="51">
+        <v>8.5460442999999997E-3</v>
+      </c>
+      <c r="E44" s="52">
+        <v>2341382</v>
+      </c>
+      <c r="F44" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G44" s="54">
+        <v>1.13064544807965E-2</v>
+      </c>
+      <c r="H44" s="55">
+        <v>9.5563655761024102E-2</v>
+      </c>
+      <c r="I44" s="55">
+        <v>0</v>
+      </c>
+      <c r="J44" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="51">
+        <v>1.91418775E-3</v>
+      </c>
+      <c r="E45" s="52">
+        <v>524435</v>
+      </c>
+      <c r="F45" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G45" s="54">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H45" s="55">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I45" s="55">
+        <v>0</v>
+      </c>
+      <c r="J45" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="51">
+        <v>2.8710717499999998E-3</v>
+      </c>
+      <c r="E46" s="52">
+        <v>786595</v>
+      </c>
+      <c r="F46" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G46" s="54">
+        <v>4.91698524182076E-3</v>
+      </c>
+      <c r="H46" s="55">
+        <v>2.19616820768136E-2</v>
+      </c>
+      <c r="I46" s="55">
+        <v>0</v>
+      </c>
+      <c r="J46" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D47" s="51">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E47" s="52">
+        <v>2341043</v>
+      </c>
+      <c r="F47" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G47" s="54">
+        <v>9.61837660028449E-4</v>
+      </c>
+      <c r="H47" s="55">
+        <v>2.9483019203413899E-3</v>
+      </c>
+      <c r="I47" s="55">
+        <v>0</v>
+      </c>
+      <c r="J47" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="51">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E48" s="52">
+        <v>2341043</v>
+      </c>
+      <c r="F48" s="53">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G48" s="54">
+        <v>1.11742087482219E-3</v>
+      </c>
+      <c r="H48" s="55">
+        <v>3.7173275248933101E-3</v>
+      </c>
+      <c r="I48" s="55">
+        <v>0</v>
+      </c>
+      <c r="J48" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="59">
         <v>1.91418775E-3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E49" s="60">
         <v>524435</v>
       </c>
-      <c r="E9" s="10">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.8710717499999998E-3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>786595</v>
-      </c>
-      <c r="E10" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.7089464249999999E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4682045</v>
-      </c>
-      <c r="E11" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.31329061424999999</v>
-      </c>
-      <c r="D12" s="6">
-        <v>85833045</v>
-      </c>
-      <c r="E12" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1.91418775E-3</v>
-      </c>
-      <c r="D13" s="9">
-        <v>524435</v>
-      </c>
-      <c r="E13" s="10">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2.8710717499999998E-3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>786595</v>
-      </c>
-      <c r="E14" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>8.5449128000000003E-3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2341072</v>
-      </c>
-      <c r="E15" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1.7089774499999998E-2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4682130</v>
-      </c>
-      <c r="E16" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.91418775E-3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>524435</v>
-      </c>
-      <c r="E17" s="10">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.8710717499999998E-3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>786595</v>
-      </c>
-      <c r="E18" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8.5455332999999998E-3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2341242</v>
-      </c>
-      <c r="E19" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1.91418775E-3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>524435</v>
-      </c>
-      <c r="E20" s="10">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2.8710717499999998E-3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>786595</v>
-      </c>
-      <c r="E21" s="4">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8.5449128000000003E-3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2341072</v>
-      </c>
-      <c r="E22" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6">
-        <v>8.5449128000000003E-3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2341072</v>
-      </c>
-      <c r="E23" s="7">
-        <v>273.97260273972603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1.91418775E-3</v>
-      </c>
-      <c r="D24" s="9">
-        <v>524435</v>
-      </c>
-      <c r="E24" s="10">
-        <v>273.97260273972603</v>
+      <c r="F49" s="61">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G49" s="62">
+        <v>2.5332281294452301E-2</v>
+      </c>
+      <c r="H49" s="63">
+        <v>1.2074368776671399E-2</v>
+      </c>
+      <c r="I49" s="63">
+        <v>0</v>
+      </c>
+      <c r="J49" s="64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
+  <mergeCells count="14">
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44079EE5-4AEE-4A50-BF2A-93B4D8BA5EBA}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="5" max="5" width="9.140625" style="87"/>
+    <col min="6" max="9" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.48041972695000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>131621843</v>
+      </c>
+      <c r="E2" s="80">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F2" s="22">
+        <f>3.59936210881934 / 100</f>
+        <v>3.59936210881934E-2</v>
+      </c>
+      <c r="G2" s="17">
+        <f>9.96288229018492 / 100</f>
+        <v>9.9628822901849198E-2</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <f t="shared" ref="I2:I11" si="0">0.304878048780487 / 100</f>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2.472368015E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6773611</v>
+      </c>
+      <c r="E3" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F3" s="23">
+        <f>3.84912873399715 / 100</f>
+        <v>3.8491287339971501E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <f>9.78340593883357 / 100</f>
+        <v>9.7834059388335698E-2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1.7127482650000001E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4692461</v>
+      </c>
+      <c r="E4" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.1694301209103799E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>6.4383668207681294E-2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2.6621329749999999E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7293515</v>
+      </c>
+      <c r="E5" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1.02390424964438E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>5.6396692745376897E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.33896439304999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>92866957</v>
+      </c>
+      <c r="E6" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F6" s="23">
+        <f>4.42717594238975 / 100</f>
+        <v>4.4271759423897501E-2</v>
+      </c>
+      <c r="G6" s="15">
+        <f>17.2768492176386 / 100</f>
+        <v>0.17276849217638598</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2.4723731249999999E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6773625</v>
+      </c>
+      <c r="E7" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F7" s="23">
+        <f>3.85007334637268 / 100</f>
+        <v>3.8500733463726802E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <f>9.83452613798008 / 100</f>
+        <v>9.8345261379800791E-2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1.712753375E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4692475</v>
+      </c>
+      <c r="E8" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.17004134068278E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>6.4532583570412499E-2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2.6621322449999998E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7293513</v>
+      </c>
+      <c r="E9" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1.0234041607396801E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5.6368910028449501E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4.7508786900000002E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>13016106</v>
+      </c>
+      <c r="E10" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F10" s="23">
+        <f>4.92481996799431 / 100</f>
+        <v>4.9248199679943101E-2</v>
+      </c>
+      <c r="G10" s="15">
+        <f>22.0329169630156 / 100</f>
+        <v>0.22032916963015603</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2.0925698199999999E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5733068</v>
+      </c>
+      <c r="E11" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F11" s="23">
+        <f>3.70999288762446 / 100</f>
+        <v>3.7099928876244602E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <f>8.70510312944523 / 100</f>
+        <v>8.7051031294452311E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0487804878048703E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1.332974525E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3651985</v>
+      </c>
+      <c r="E12" s="81">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1.02907183499288E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5.3437277738264503E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1.3329748900000001E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3651986</v>
+      </c>
+      <c r="E13" s="82">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1.0299053165007101E-2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5.3542852062588901E-2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="72">
+        <v>0.48042130374999997</v>
+      </c>
+      <c r="D14" s="43">
+        <v>131622275</v>
+      </c>
+      <c r="E14" s="83">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F14" s="45">
+        <v>3.4046608285917497E-2</v>
+      </c>
+      <c r="G14" s="46">
+        <v>8.1734530583214796E-2</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="73">
+        <v>2.47235305E-2</v>
+      </c>
+      <c r="D15" s="52">
+        <v>6773570</v>
+      </c>
+      <c r="E15" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F15" s="54">
+        <v>3.6346461593172098E-2</v>
+      </c>
+      <c r="G15" s="55">
+        <v>9.4451235775248901E-2</v>
+      </c>
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="73">
+        <v>1.71273841E-2</v>
+      </c>
+      <c r="D16" s="52">
+        <v>4692434</v>
+      </c>
+      <c r="E16" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F16" s="54">
+        <v>1.0241820768136499E-2</v>
+      </c>
+      <c r="G16" s="55">
+        <v>6.4882645803698402E-2</v>
+      </c>
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="73">
+        <v>2.2824081449999999E-2</v>
+      </c>
+      <c r="D17" s="52">
+        <v>6253173</v>
+      </c>
+      <c r="E17" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F17" s="54">
+        <v>1.5600551209103799E-2</v>
+      </c>
+      <c r="G17" s="55">
+        <v>9.0324946657183505E-2</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="73">
+        <v>0.33042221044999998</v>
+      </c>
+      <c r="D18" s="52">
+        <v>90526633</v>
+      </c>
+      <c r="E18" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F18" s="54">
+        <v>4.0140469416785202E-2</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0.13708548186344199</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="73">
+        <v>2.47235305E-2</v>
+      </c>
+      <c r="D19" s="52">
+        <v>6773570</v>
+      </c>
+      <c r="E19" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F19" s="54">
+        <v>3.6346461593172098E-2</v>
+      </c>
+      <c r="G19" s="55">
+        <v>9.4451235775248901E-2</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="73">
+        <v>1.71273841E-2</v>
+      </c>
+      <c r="D20" s="52">
+        <v>4692434</v>
+      </c>
+      <c r="E20" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F20" s="54">
+        <v>1.0241820768136499E-2</v>
+      </c>
+      <c r="G20" s="55">
+        <v>6.4882645803698402E-2</v>
+      </c>
+      <c r="H20" s="55">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="73">
+        <v>1.71277783E-2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>4692542</v>
+      </c>
+      <c r="E21" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F21" s="54">
+        <v>1.2558899359886201E-2</v>
+      </c>
+      <c r="G21" s="55">
+        <v>7.07125711237553E-2</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="73">
+        <v>2.1877815299999999E-2</v>
+      </c>
+      <c r="D22" s="52">
+        <v>5993922</v>
+      </c>
+      <c r="E22" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F22" s="54">
+        <v>4.2570345839260303E-2</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0.167673141891891</v>
+      </c>
+      <c r="H22" s="55">
+        <v>0</v>
+      </c>
+      <c r="I22" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="73">
+        <v>2.0925537599999999E-2</v>
+      </c>
+      <c r="D23" s="52">
+        <v>5733024</v>
+      </c>
+      <c r="E23" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F23" s="54">
+        <v>3.4917318634423898E-2</v>
+      </c>
+      <c r="G23" s="55">
+        <v>8.3440389402560405E-2</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="56">
+        <v>3.0487804878048699E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="73">
+        <v>1.3329643049999999E-2</v>
+      </c>
+      <c r="D24" s="52">
+        <v>3651957</v>
+      </c>
+      <c r="E24" s="84">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F24" s="54">
+        <v>8.8476840327169192E-3</v>
+      </c>
+      <c r="G24" s="55">
+        <v>5.3657316856329997E-2</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="75">
+        <v>1.4279343850000001E-2</v>
+      </c>
+      <c r="D25" s="60">
+        <v>3912149</v>
+      </c>
+      <c r="E25" s="85">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F25" s="62">
+        <v>1.13547964082503E-2</v>
+      </c>
+      <c r="G25" s="63">
+        <v>6.2547786273115205E-2</v>
+      </c>
+      <c r="H25" s="63">
+        <v>0</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBBDC87-3130-4961-A2CE-E148B0ADB65E}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>1.71273841E-2</v>
+      </c>
+      <c r="C1">
+        <v>4692434</v>
+      </c>
+      <c r="D1">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E1">
+        <v>1.0241820768136499E-2</v>
+      </c>
+      <c r="F1">
+        <v>6.4882645803698402E-2</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>2.2824081449999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>6253173</v>
+      </c>
+      <c r="D2">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E2">
+        <v>1.5600551209103799E-2</v>
+      </c>
+      <c r="F2">
+        <v>9.0324946657183505E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1.71273841E-2</v>
+      </c>
+      <c r="C3">
+        <v>4692434</v>
+      </c>
+      <c r="D3">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E3">
+        <v>1.0241820768136499E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.4882645803698402E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1.71277783E-2</v>
+      </c>
+      <c r="C4">
+        <v>4692542</v>
+      </c>
+      <c r="D4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E4">
+        <v>1.2558899359886201E-2</v>
+      </c>
+      <c r="F4">
+        <v>7.07125711237553E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1.3329643049999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>3651957</v>
+      </c>
+      <c r="D5">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E5">
+        <v>8.8476840327169192E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.3657316856329997E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1.4279343850000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>3912149</v>
+      </c>
+      <c r="D6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="E6">
+        <v>1.13547964082503E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.2547786273115205E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.2703252032520301E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TaskgraphsEdgeDetect/Results.xlsx
+++ b/TaskgraphsEdgeDetect/Results.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54113B-5728-4EED-9D4E-B4C3E0F447F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9029A-9099-4731-842A-DE849A1547E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Whole Application" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="AlveoResults" sheetId="4" r:id="rId4"/>
+    <sheet name="ComLatencyModel" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>rgbToGrayscale</t>
   </si>
@@ -137,14 +139,69 @@
   </si>
   <si>
     <t>v2e</t>
+  </si>
+  <si>
+    <t>V0, optimized</t>
+  </si>
+  <si>
+    <t>V0CE, optimized</t>
+  </si>
+  <si>
+    <t>Nbytes</t>
+  </si>
+  <si>
+    <t>ExecTime</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Run 6</t>
+  </si>
+  <si>
+    <t>Run 7</t>
+  </si>
+  <si>
+    <t>Run 8</t>
+  </si>
+  <si>
+    <t>Run 9</t>
+  </si>
+  <si>
+    <t>Run 10</t>
+  </si>
+  <si>
+    <t>V0CE, optimized, only grayscale and combthreshold in HW</t>
+  </si>
+  <si>
+    <t>dataflow</t>
+  </si>
+  <si>
+    <t>Avg ExecTime (ms)</t>
+  </si>
+  <si>
+    <t>ExecTimes (us)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,12 +381,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -333,8 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -346,34 +407,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -384,19 +427,12 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,28 +440,11 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,10 +456,75 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,6 +545,1138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ComLatencyModel!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ExecTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0572920809141527E-3"/>
+                  <c:y val="-5.3161017916238729E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E54E-4554-8B14-B0E96DEF275E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0572920809141284E-3"/>
+                  <c:y val="-6.2998117083190683E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E54E-4554-8B14-B0E96DEF275E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2114425090802846E-2"/>
+                  <c:y val="-3.0960002282323536E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E54E-4554-8B14-B0E96DEF275E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ComLatencyModel!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ComLatencyModel!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>792.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>573.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3225.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22319.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E54E-4554-8B14-B0E96DEF275E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233388111"/>
+        <c:axId val="233387279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233388111"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="5000000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bytes Communicated</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233387279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233387279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Exec Time (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233388111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD16FD9-0DC7-3EE4-E5EB-CFD4DD5C79E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,60 +1951,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="32"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="9.140625" style="23"/>
-    <col min="8" max="9" width="9.140625" style="15"/>
-    <col min="10" max="10" width="9.140625" style="19"/>
+    <col min="1" max="1" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="21"/>
+    <col min="8" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="60" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
         <v>2.8710717499999998E-3</v>
       </c>
       <c r="E2" s="2">
@@ -797,84 +2012,84 @@
       <c r="F2" s="3">
         <v>273.97260273972603</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="27">
         <v>1.7089464249999999E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>4682045</v>
       </c>
-      <c r="F3" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="F3" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G3" s="21">
         <v>3.0094238975817899E-3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>2.3046319345661401E-2</v>
       </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>524435</v>
       </c>
-      <c r="F4" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G4" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
         <v>2.8710717499999998E-3</v>
       </c>
       <c r="E5" s="2">
@@ -883,140 +2098,140 @@
       <c r="F5" s="3">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <v>8.5449128000000003E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>2341072</v>
       </c>
-      <c r="F6" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G6" s="21">
         <v>1.68807788051209E-3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>4.2085259601706898E-3</v>
       </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>8.5449091500000001E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>2341071</v>
       </c>
-      <c r="F7" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G7" s="21">
         <v>1.6158428165007101E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>4.0251600284495004E-3</v>
       </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <v>8.5449091500000001E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>2341071</v>
       </c>
-      <c r="F8" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G8" s="21">
         <v>1.5980618776671399E-3</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>4.0251600284495004E-3</v>
       </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>524435</v>
       </c>
-      <c r="F9" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="F9" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G9" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
         <v>2.8710717499999998E-3</v>
       </c>
       <c r="E10" s="2">
@@ -1025,112 +2240,112 @@
       <c r="F10" s="3">
         <v>273.97260273972603</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>1.7089464249999999E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>4682045</v>
       </c>
-      <c r="F11" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G11" s="21">
         <v>3.0094238975817899E-3</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>2.3046319345661401E-2</v>
       </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>0.3170896547</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>86873878</v>
       </c>
-      <c r="F12" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G12" s="21">
         <v>1.0965282716927399E-2</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>8.3440389402560405E-2</v>
       </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>524435</v>
       </c>
-      <c r="F13" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G13" s="24">
+      <c r="F13" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G13" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
         <v>2.8710717499999998E-3</v>
       </c>
       <c r="E14" s="2">
@@ -1139,112 +2354,112 @@
       <c r="F14" s="3">
         <v>273.97260273972603</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="27">
         <v>8.5449128000000003E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>2341072</v>
       </c>
-      <c r="F15" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G15" s="21">
         <v>1.68807788051209E-3</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>4.2085259601706898E-3</v>
       </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>1.7089774499999998E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>4682130</v>
       </c>
-      <c r="F16" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="F16" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G16" s="21">
         <v>2.7293741109530498E-3</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>6.90122688477951E-3</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>524435</v>
       </c>
-      <c r="F17" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="F17" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G17" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31">
+      <c r="C18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
         <v>2.8710717499999998E-3</v>
       </c>
       <c r="E18" s="2">
@@ -1253,905 +2468,911 @@
       <c r="F18" s="3">
         <v>273.97260273972603</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>8.5449128000000003E-3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>2341072</v>
       </c>
-      <c r="F19" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="F19" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G19" s="21">
         <v>1.68807788051209E-3</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <v>4.2085259601706898E-3</v>
       </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>8.5455332999999998E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>2341242</v>
       </c>
-      <c r="F20" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="F20" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G20" s="21">
         <v>4.4524582147937404E-3</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>4.3349928876244601E-2</v>
       </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>524435</v>
       </c>
-      <c r="F21" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G21" s="24">
+      <c r="F21" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G21" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>786595</v>
       </c>
-      <c r="F22" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="F22" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G22" s="21">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>8.5449128000000003E-3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>2341072</v>
       </c>
-      <c r="F23" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="F23" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G23" s="21">
         <v>1.68807788051209E-3</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="13">
         <v>4.2085259601706898E-3</v>
       </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="27">
         <v>8.5449128000000003E-3</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>2341072</v>
       </c>
-      <c r="F24" s="5">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G24" s="23">
+      <c r="F24" s="4">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G24" s="21">
         <v>2.52656027738264E-3</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="13">
         <v>6.1477596017069699E-3</v>
       </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="28">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>524435</v>
       </c>
-      <c r="F25" s="7">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="F25" s="6">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G25" s="22">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
+      <c r="C26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="34">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="35">
         <v>786595</v>
       </c>
-      <c r="F26" s="44">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="F26" s="36">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G26" s="37">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="38">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I26" s="46">
-        <v>0</v>
-      </c>
-      <c r="J26" s="47">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50" t="s">
+    <row r="27" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="42">
         <v>8.5459968499999994E-3</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="40">
         <v>2341369</v>
       </c>
-      <c r="F27" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G27" s="54">
+      <c r="F27" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G27" s="44">
         <v>8.7687811166429503E-3</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="45">
         <v>6.4569256756756704E-2</v>
       </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58" t="s">
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="42">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="40">
         <v>524435</v>
       </c>
-      <c r="F28" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G28" s="54">
+      <c r="F28" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G28" s="44">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="45">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="J28" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40" t="s">
+      <c r="I28" s="45">
+        <v>0</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="C29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="42">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="40">
         <v>786595</v>
       </c>
-      <c r="F29" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G29" s="54">
+      <c r="F29" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G29" s="44">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="45">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I29" s="55">
-        <v>0</v>
-      </c>
-      <c r="J29" s="56">
+      <c r="I29" s="45">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50" t="s">
+    <row r="30" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="42">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="40">
         <v>2341043</v>
       </c>
-      <c r="F30" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G30" s="54">
+      <c r="F30" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G30" s="44">
         <v>9.61837660028449E-4</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="45">
         <v>2.9483019203413899E-3</v>
       </c>
-      <c r="I30" s="55">
-        <v>0</v>
-      </c>
-      <c r="J30" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50" t="s">
+      <c r="I30" s="45">
+        <v>0</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="42">
         <v>8.5448033000000007E-3</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="40">
         <v>2341042</v>
       </c>
-      <c r="F31" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G31" s="54">
+      <c r="F31" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G31" s="44">
         <v>8.9571479374110901E-4</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="45">
         <v>2.7049253200568898E-3</v>
       </c>
-      <c r="I31" s="55">
-        <v>0</v>
-      </c>
-      <c r="J31" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50" t="s">
+      <c r="I31" s="45">
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="42">
         <v>8.5448033000000007E-3</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="40">
         <v>2341042</v>
       </c>
-      <c r="F32" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G32" s="54">
+      <c r="F32" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G32" s="44">
         <v>8.7793385490753898E-4</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="45">
         <v>2.7782716927453699E-3</v>
       </c>
-      <c r="I32" s="55">
-        <v>0</v>
-      </c>
-      <c r="J32" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58" t="s">
+      <c r="I32" s="45">
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="42">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="40">
         <v>524435</v>
       </c>
-      <c r="F33" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G33" s="54">
+      <c r="F33" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G33" s="44">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="45">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I33" s="55">
-        <v>0</v>
-      </c>
-      <c r="J33" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40" t="s">
+      <c r="I33" s="45">
+        <v>0</v>
+      </c>
+      <c r="J33" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="C34" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="42">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="40">
         <v>786595</v>
       </c>
-      <c r="F34" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G34" s="54">
+      <c r="F34" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G34" s="44">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="45">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I34" s="55">
-        <v>0</v>
-      </c>
-      <c r="J34" s="56">
+      <c r="I34" s="45">
+        <v>0</v>
+      </c>
+      <c r="J34" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50" t="s">
+    <row r="35" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="42">
         <v>8.5459968499999994E-3</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="40">
         <v>2341369</v>
       </c>
-      <c r="F35" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G35" s="54">
+      <c r="F35" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G35" s="44">
         <v>8.7687811166429503E-3</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="45">
         <v>6.4569256756756704E-2</v>
       </c>
-      <c r="I35" s="55">
-        <v>0</v>
-      </c>
-      <c r="J35" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50" t="s">
+      <c r="I35" s="45">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="42">
         <v>0.31709070589999999</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="40">
         <v>86874166</v>
       </c>
-      <c r="F36" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G36" s="54">
+      <c r="F36" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G36" s="44">
         <v>9.0182699146514906E-3</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="45">
         <v>6.5546097083926003E-2</v>
       </c>
-      <c r="I36" s="55">
-        <v>0</v>
-      </c>
-      <c r="J36" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58" t="s">
+      <c r="I36" s="45">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="42">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="40">
         <v>524435</v>
       </c>
-      <c r="F37" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G37" s="54">
+      <c r="F37" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G37" s="44">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="45">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I37" s="55">
-        <v>0</v>
-      </c>
-      <c r="J37" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40" t="s">
+      <c r="I37" s="45">
+        <v>0</v>
+      </c>
+      <c r="J37" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="C38" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="42">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="40">
         <v>786595</v>
       </c>
-      <c r="F38" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G38" s="54">
+      <c r="F38" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G38" s="44">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="45">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I38" s="55">
-        <v>0</v>
-      </c>
-      <c r="J38" s="56">
+      <c r="I38" s="45">
+        <v>0</v>
+      </c>
+      <c r="J38" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50" t="s">
+    <row r="39" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="42">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="40">
         <v>2341043</v>
       </c>
-      <c r="F39" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G39" s="54">
+      <c r="F39" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G39" s="44">
         <v>9.61837660028449E-4</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="45">
         <v>2.9483019203413899E-3</v>
       </c>
-      <c r="I39" s="55">
-        <v>0</v>
-      </c>
-      <c r="J39" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50" t="s">
+      <c r="I39" s="45">
+        <v>0</v>
+      </c>
+      <c r="J39" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="42">
         <v>1.7089617549999998E-2</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="40">
         <v>4682087</v>
       </c>
-      <c r="F40" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G40" s="54">
+      <c r="F40" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G40" s="44">
         <v>1.29578591749644E-3</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="45">
         <v>4.2785384068278797E-3</v>
       </c>
-      <c r="I40" s="55">
-        <v>0</v>
-      </c>
-      <c r="J40" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="58" t="s">
+      <c r="I40" s="45">
+        <v>0</v>
+      </c>
+      <c r="J40" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="42">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="40">
         <v>524435</v>
       </c>
-      <c r="F41" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G41" s="54">
+      <c r="F41" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G41" s="44">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="45">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I41" s="55">
-        <v>0</v>
-      </c>
-      <c r="J41" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40" t="s">
+      <c r="I41" s="45">
+        <v>0</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="51">
+      <c r="C42" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="40">
         <v>786595</v>
       </c>
-      <c r="F42" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G42" s="54">
+      <c r="F42" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G42" s="44">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="45">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I42" s="55">
-        <v>0</v>
-      </c>
-      <c r="J42" s="56">
+      <c r="I42" s="45">
+        <v>0</v>
+      </c>
+      <c r="J42" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50" t="s">
+    <row r="43" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="42">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="40">
         <v>2341043</v>
       </c>
-      <c r="F43" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G43" s="54">
+      <c r="F43" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G43" s="44">
         <v>9.61837660028449E-4</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="45">
         <v>2.9483019203413899E-3</v>
       </c>
-      <c r="I43" s="55">
-        <v>0</v>
-      </c>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50" t="s">
+      <c r="I43" s="45">
+        <v>0</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="42">
         <v>8.5460442999999997E-3</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="40">
         <v>2341382</v>
       </c>
-      <c r="F44" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G44" s="54">
+      <c r="F44" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G44" s="44">
         <v>1.13064544807965E-2</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="45">
         <v>9.5563655761024102E-2</v>
       </c>
-      <c r="I44" s="55">
-        <v>0</v>
-      </c>
-      <c r="J44" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58" t="s">
+      <c r="I44" s="45">
+        <v>0</v>
+      </c>
+      <c r="J44" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="42">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="40">
         <v>524435</v>
       </c>
-      <c r="F45" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G45" s="54">
+      <c r="F45" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G45" s="44">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="45">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I45" s="55">
-        <v>0</v>
-      </c>
-      <c r="J45" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="49" t="s">
+      <c r="I45" s="45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73"/>
+      <c r="B46" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="51">
+      <c r="C46" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="42">
         <v>2.8710717499999998E-3</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="40">
         <v>786595</v>
       </c>
-      <c r="F46" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G46" s="54">
+      <c r="F46" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G46" s="44">
         <v>4.91698524182076E-3</v>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="45">
         <v>2.19616820768136E-2</v>
       </c>
-      <c r="I46" s="55">
-        <v>0</v>
-      </c>
-      <c r="J46" s="56">
+      <c r="I46" s="45">
+        <v>0</v>
+      </c>
+      <c r="J46" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50" t="s">
+    <row r="47" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="73"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="42">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="40">
         <v>2341043</v>
       </c>
-      <c r="F47" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G47" s="54">
+      <c r="F47" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G47" s="44">
         <v>9.61837660028449E-4</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="45">
         <v>2.9483019203413899E-3</v>
       </c>
-      <c r="I47" s="55">
-        <v>0</v>
-      </c>
-      <c r="J47" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50" t="s">
+      <c r="I47" s="45">
+        <v>0</v>
+      </c>
+      <c r="J47" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="42">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="40">
         <v>2341043</v>
       </c>
-      <c r="F48" s="53">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G48" s="54">
+      <c r="F48" s="43">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G48" s="44">
         <v>1.11742087482219E-3</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="45">
         <v>3.7173275248933101E-3</v>
       </c>
-      <c r="I48" s="55">
-        <v>0</v>
-      </c>
-      <c r="J48" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58" t="s">
+      <c r="I48" s="45">
+        <v>0</v>
+      </c>
+      <c r="J48" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="48">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="49">
         <v>524435</v>
       </c>
-      <c r="F49" s="61">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G49" s="62">
+      <c r="F49" s="50">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G49" s="51">
         <v>2.5332281294452301E-2</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="52">
         <v>1.2074368776671399E-2</v>
       </c>
-      <c r="I49" s="63">
-        <v>0</v>
-      </c>
-      <c r="J49" s="64">
+      <c r="I49" s="52">
+        <v>0</v>
+      </c>
+      <c r="J49" s="53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B2:B4"/>
@@ -2160,12 +3381,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2176,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44079EE5-4AEE-4A50-BF2A-93B4D8BA5EBA}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
@@ -2185,9 +3400,9 @@
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="5" max="5" width="9.140625" style="87"/>
-    <col min="6" max="9" width="9.140625" style="89"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.140625" style="68"/>
+    <col min="6" max="9" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2197,719 +3412,703 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="69" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="23">
         <v>0.48041972695000001</v>
       </c>
       <c r="D2" s="2">
         <v>131621843</v>
       </c>
-      <c r="E2" s="80">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="E2" s="62">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F2" s="20">
         <f>3.59936210881934 / 100</f>
         <v>3.59936210881934E-2</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <f>9.96288229018492 / 100</f>
         <v>9.9628822901849198E-2</v>
       </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
         <f t="shared" ref="I2:I11" si="0">0.304878048780487 / 100</f>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>2.472368015E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>6773611</v>
       </c>
-      <c r="E3" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F3" s="23">
+      <c r="E3" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F3" s="21">
         <f>3.84912873399715 / 100</f>
         <v>3.8491287339971501E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>9.78340593883357 / 100</f>
         <v>9.7834059388335698E-2</v>
       </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>1.7127482650000001E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>4692461</v>
       </c>
-      <c r="E4" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F4" s="21">
         <v>1.1694301209103799E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>6.4383668207681294E-2</v>
       </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>2.6621329749999999E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>7293515</v>
       </c>
-      <c r="E5" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F5" s="21">
         <v>1.02390424964438E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>5.6396692745376897E-2</v>
       </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="24">
         <v>0.33896439304999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>92866957</v>
       </c>
-      <c r="E6" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F6" s="21">
         <f>4.42717594238975 / 100</f>
         <v>4.4271759423897501E-2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f>17.2768492176386 / 100</f>
         <v>0.17276849217638598</v>
       </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="24">
         <v>2.4723731249999999E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>6773625</v>
       </c>
-      <c r="E7" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F7" s="21">
         <f>3.85007334637268 / 100</f>
         <v>3.8500733463726802E-2</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f>9.83452613798008 / 100</f>
         <v>9.8345261379800791E-2</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
         <f t="shared" si="0"/>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="24">
         <v>1.712753375E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>4692475</v>
       </c>
-      <c r="E8" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="E8" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F8" s="21">
         <v>1.17004134068278E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>6.4532583570412499E-2</v>
       </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="24">
         <v>2.6621322449999998E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>7293513</v>
       </c>
-      <c r="E9" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="E9" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F9" s="21">
         <v>1.0234041607396801E-2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>5.6368910028449501E-2</v>
       </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <v>4.7508786900000002E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>13016106</v>
       </c>
-      <c r="E10" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F10" s="21">
         <f>4.92481996799431 / 100</f>
         <v>4.9248199679943101E-2</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f>22.0329169630156 / 100</f>
         <v>0.22032916963015603</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <v>2.0925698199999999E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>5733068</v>
       </c>
-      <c r="E11" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F11" s="21">
         <f>3.70999288762446 / 100</f>
         <v>3.7099928876244602E-2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <f>8.70510312944523 / 100</f>
         <v>8.7051031294452311E-2</v>
       </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
         <v>3.0487804878048703E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="24">
         <v>1.332974525E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>3651985</v>
       </c>
-      <c r="E12" s="81">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="63">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F12" s="21">
         <v>1.02907183499288E-2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>5.3437277738264503E-2</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="25">
         <v>1.3329748900000001E-2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3651986</v>
       </c>
-      <c r="E13" s="82">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="64">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F13" s="22">
         <v>1.0299053165007101E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>5.3542852062588901E-2</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="55">
         <v>0.48042130374999997</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="35">
         <v>131622275</v>
       </c>
-      <c r="E14" s="83">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F14" s="45">
+      <c r="E14" s="65">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F14" s="37">
         <v>3.4046608285917497E-2</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="38">
         <v>8.1734530583214796E-2</v>
       </c>
-      <c r="H14" s="46">
-        <v>0</v>
-      </c>
-      <c r="I14" s="47">
+      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="50" t="s">
+    <row r="15" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="56">
         <v>2.47235305E-2</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="40">
         <v>6773570</v>
       </c>
-      <c r="E15" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F15" s="44">
         <v>3.6346461593172098E-2</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="45">
         <v>9.4451235775248901E-2</v>
       </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
+      <c r="H15" s="45">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="56">
         <v>1.71273841E-2</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="40">
         <v>4692434</v>
       </c>
-      <c r="E16" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F16" s="54">
+      <c r="E16" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F16" s="44">
         <v>1.0241820768136499E-2</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="45">
         <v>6.4882645803698402E-2</v>
       </c>
-      <c r="H16" s="55">
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="46">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="50" t="s">
+    <row r="17" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="56">
         <v>2.2824081449999999E-2</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="40">
         <v>6253173</v>
       </c>
-      <c r="E17" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F17" s="54">
+      <c r="E17" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F17" s="44">
         <v>1.5600551209103799E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="45">
         <v>9.0324946657183505E-2</v>
       </c>
-      <c r="H17" s="55">
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="56">
         <v>0.33042221044999998</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="40">
         <v>90526633</v>
       </c>
-      <c r="E18" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F18" s="54">
+      <c r="E18" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F18" s="44">
         <v>4.0140469416785202E-2</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="45">
         <v>0.13708548186344199</v>
       </c>
-      <c r="H18" s="55">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="56">
         <v>2.47235305E-2</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="40">
         <v>6773570</v>
       </c>
-      <c r="E19" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F19" s="54">
+      <c r="E19" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F19" s="44">
         <v>3.6346461593172098E-2</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="45">
         <v>9.4451235775248901E-2</v>
       </c>
-      <c r="H19" s="55">
-        <v>0</v>
-      </c>
-      <c r="I19" s="56">
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="56">
         <v>1.71273841E-2</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="40">
         <v>4692434</v>
       </c>
-      <c r="E20" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F20" s="54">
+      <c r="E20" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F20" s="44">
         <v>1.0241820768136499E-2</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="45">
         <v>6.4882645803698402E-2</v>
       </c>
-      <c r="H20" s="55">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="50" t="s">
+    <row r="21" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="56">
         <v>1.71277783E-2</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="40">
         <v>4692542</v>
       </c>
-      <c r="E21" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F21" s="54">
+      <c r="E21" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F21" s="44">
         <v>1.2558899359886201E-2</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="45">
         <v>7.07125711237553E-2</v>
       </c>
-      <c r="H21" s="55">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56">
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="50" t="s">
+    <row r="22" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="56">
         <v>2.1877815299999999E-2</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="40">
         <v>5993922</v>
       </c>
-      <c r="E22" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F22" s="54">
+      <c r="E22" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F22" s="44">
         <v>4.2570345839260303E-2</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="45">
         <v>0.167673141891891</v>
       </c>
-      <c r="H22" s="55">
-        <v>0</v>
-      </c>
-      <c r="I22" s="56">
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="50" t="s">
+    <row r="23" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="56">
         <v>2.0925537599999999E-2</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="40">
         <v>5733024</v>
       </c>
-      <c r="E23" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F23" s="54">
+      <c r="E23" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F23" s="44">
         <v>3.4917318634423898E-2</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="45">
         <v>8.3440389402560405E-2</v>
       </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="56">
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46">
         <v>3.0487804878048699E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="56">
         <v>1.3329643049999999E-2</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="40">
         <v>3651957</v>
       </c>
-      <c r="E24" s="84">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F24" s="54">
+      <c r="E24" s="66">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F24" s="44">
         <v>8.8476840327169192E-3</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="45">
         <v>5.3657316856329997E-2</v>
       </c>
-      <c r="H24" s="55">
-        <v>0</v>
-      </c>
-      <c r="I24" s="56">
+      <c r="H24" s="45">
+        <v>0</v>
+      </c>
+      <c r="I24" s="46">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="58" t="s">
+    <row r="25" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74"/>
+      <c r="B25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="57">
         <v>1.4279343850000001E-2</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="49">
         <v>3912149</v>
       </c>
-      <c r="E25" s="85">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="F25" s="62">
+      <c r="E25" s="67">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="F25" s="51">
         <v>1.13547964082503E-2</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="52">
         <v>6.2547786273115205E-2</v>
       </c>
-      <c r="H25" s="63">
-        <v>0</v>
-      </c>
-      <c r="I25" s="64">
+      <c r="H25" s="52">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53">
         <v>1.2703252032520301E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="54"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2926,7 +4125,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H6"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,4 +4295,488 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0078E1D9-9F40-461D-84E9-36F857BBEF1B}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="87" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>393408</v>
+      </c>
+      <c r="C2" s="89">
+        <f>AVERAGE(B2:B6) / 1000</f>
+        <v>393.73579999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91">
+        <v>393693</v>
+      </c>
+      <c r="C3" s="92"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91">
+        <v>393577</v>
+      </c>
+      <c r="C4" s="92"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91">
+        <v>393681</v>
+      </c>
+      <c r="C5" s="92"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="93"/>
+      <c r="B6" s="5">
+        <v>394320</v>
+      </c>
+      <c r="C6" s="94"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2">
+        <v>154045</v>
+      </c>
+      <c r="C7" s="89">
+        <f t="shared" ref="C7" si="0">AVERAGE(B7:B11) / 1000</f>
+        <v>153.73740000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91">
+        <v>153470</v>
+      </c>
+      <c r="C8" s="92"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91">
+        <v>154048</v>
+      </c>
+      <c r="C9" s="92"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91">
+        <v>153539</v>
+      </c>
+      <c r="C10" s="92"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="5">
+        <v>153585</v>
+      </c>
+      <c r="C11" s="94"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2">
+        <v>38734</v>
+      </c>
+      <c r="C12" s="89">
+        <f t="shared" ref="C12" si="1">AVERAGE(B12:B16) / 1000</f>
+        <v>38.290800000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91">
+        <v>38106</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="91">
+        <v>38425</v>
+      </c>
+      <c r="C14" s="92"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91">
+        <v>38395</v>
+      </c>
+      <c r="C15" s="92"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="5">
+        <v>37794</v>
+      </c>
+      <c r="C16" s="94"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="89" t="e">
+        <f>AVERAGE(B17:B21) / 1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86221B-3F5C-41E8-9FA1-536CAD3FD473}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(C2:L2)</f>
+        <v>792.9</v>
+      </c>
+      <c r="C2">
+        <v>897</v>
+      </c>
+      <c r="D2">
+        <v>725</v>
+      </c>
+      <c r="E2">
+        <v>551</v>
+      </c>
+      <c r="F2">
+        <v>756</v>
+      </c>
+      <c r="G2">
+        <v>950</v>
+      </c>
+      <c r="H2">
+        <v>765</v>
+      </c>
+      <c r="I2">
+        <v>775</v>
+      </c>
+      <c r="J2">
+        <v>950</v>
+      </c>
+      <c r="K2">
+        <v>753</v>
+      </c>
+      <c r="L2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">AVERAGE(C3:L3)</f>
+        <v>573.70000000000005</v>
+      </c>
+      <c r="C3">
+        <v>483</v>
+      </c>
+      <c r="D3">
+        <v>522</v>
+      </c>
+      <c r="E3">
+        <v>964</v>
+      </c>
+      <c r="F3">
+        <v>511</v>
+      </c>
+      <c r="G3">
+        <v>466</v>
+      </c>
+      <c r="H3">
+        <v>574</v>
+      </c>
+      <c r="I3">
+        <v>526</v>
+      </c>
+      <c r="J3">
+        <v>604</v>
+      </c>
+      <c r="K3">
+        <v>565</v>
+      </c>
+      <c r="L3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100000</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>937.5</v>
+      </c>
+      <c r="C4">
+        <v>809</v>
+      </c>
+      <c r="D4">
+        <v>738</v>
+      </c>
+      <c r="E4">
+        <v>1784</v>
+      </c>
+      <c r="F4">
+        <v>825</v>
+      </c>
+      <c r="G4">
+        <v>866</v>
+      </c>
+      <c r="H4">
+        <v>949</v>
+      </c>
+      <c r="I4">
+        <v>787</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>868</v>
+      </c>
+      <c r="L4">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1992.6</v>
+      </c>
+      <c r="C5">
+        <v>1768</v>
+      </c>
+      <c r="D5">
+        <v>1750</v>
+      </c>
+      <c r="E5">
+        <v>3161</v>
+      </c>
+      <c r="F5">
+        <v>1718</v>
+      </c>
+      <c r="G5">
+        <v>2177</v>
+      </c>
+      <c r="H5">
+        <v>2093</v>
+      </c>
+      <c r="I5">
+        <v>1765</v>
+      </c>
+      <c r="J5">
+        <v>1924</v>
+      </c>
+      <c r="K5">
+        <v>1861</v>
+      </c>
+      <c r="L5">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3225.6</v>
+      </c>
+      <c r="C6">
+        <v>3097</v>
+      </c>
+      <c r="D6">
+        <v>3217</v>
+      </c>
+      <c r="E6">
+        <v>3161</v>
+      </c>
+      <c r="F6">
+        <v>2992</v>
+      </c>
+      <c r="G6">
+        <v>3090</v>
+      </c>
+      <c r="H6">
+        <v>3673</v>
+      </c>
+      <c r="I6">
+        <v>3191</v>
+      </c>
+      <c r="J6">
+        <v>3297</v>
+      </c>
+      <c r="K6">
+        <v>3160</v>
+      </c>
+      <c r="L6">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>22319.3</v>
+      </c>
+      <c r="C7">
+        <v>20733</v>
+      </c>
+      <c r="D7">
+        <v>24310</v>
+      </c>
+      <c r="E7">
+        <v>22310</v>
+      </c>
+      <c r="F7">
+        <v>21731</v>
+      </c>
+      <c r="G7">
+        <v>23326</v>
+      </c>
+      <c r="H7">
+        <v>23970</v>
+      </c>
+      <c r="I7">
+        <v>21316</v>
+      </c>
+      <c r="J7">
+        <v>21794</v>
+      </c>
+      <c r="K7">
+        <v>24259</v>
+      </c>
+      <c r="L7">
+        <v>19444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TaskgraphsEdgeDetect/Results.xlsx
+++ b/TaskgraphsEdgeDetect/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9029A-9099-4731-842A-DE849A1547E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC7B494-9345-49B0-8B9D-474082BB5F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28215" yWindow="1155" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Functions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>rgbToGrayscale</t>
   </si>
@@ -186,13 +186,16 @@
     <t>V0CE, optimized, only grayscale and combthreshold in HW</t>
   </si>
   <si>
-    <t>dataflow</t>
-  </si>
-  <si>
     <t>Avg ExecTime (ms)</t>
   </si>
   <si>
     <t>ExecTimes (us)</t>
+  </si>
+  <si>
+    <t>V0CE, optimized, dataflow</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -459,6 +462,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,32 +509,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,10 +2009,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2026,8 +2041,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2054,8 +2069,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2082,8 +2097,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2112,8 +2127,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2155,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2168,8 +2183,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2196,8 +2211,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
@@ -2224,8 +2239,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2254,8 +2269,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
@@ -2282,8 +2297,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
@@ -2310,8 +2325,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
@@ -2338,8 +2353,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="82" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2368,8 +2383,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2411,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
@@ -2424,8 +2439,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
@@ -2452,8 +2467,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="82" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2482,8 +2497,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2525,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -2538,8 +2553,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
@@ -2566,8 +2581,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2596,8 +2611,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -2624,8 +2639,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
@@ -2652,8 +2667,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
@@ -2680,10 +2695,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2712,8 +2727,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="41" t="s">
         <v>1</v>
       </c>
@@ -2740,8 +2755,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="47" t="s">
         <v>2</v>
       </c>
@@ -2768,8 +2783,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -2798,8 +2813,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="41" t="s">
         <v>3</v>
       </c>
@@ -2826,8 +2841,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="41" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +2869,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="41" t="s">
         <v>5</v>
       </c>
@@ -2882,8 +2897,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="47" t="s">
         <v>2</v>
       </c>
@@ -2910,8 +2925,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="79" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -2940,8 +2955,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="41" t="s">
         <v>1</v>
       </c>
@@ -2968,8 +2983,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="41" t="s">
         <v>6</v>
       </c>
@@ -2996,8 +3011,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="47" t="s">
         <v>2</v>
       </c>
@@ -3024,8 +3039,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="77"/>
+      <c r="B38" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="33" t="s">
@@ -3054,8 +3069,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="41" t="s">
         <v>3</v>
       </c>
@@ -3082,8 +3097,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="41" t="s">
         <v>6</v>
       </c>
@@ -3110,8 +3125,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="47" t="s">
         <v>2</v>
       </c>
@@ -3138,8 +3153,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="75" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="79" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -3168,8 +3183,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="41" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3211,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="41" t="s">
         <v>7</v>
       </c>
@@ -3224,8 +3239,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="77"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="47" t="s">
         <v>2</v>
       </c>
@@ -3252,8 +3267,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="41" t="s">
@@ -3282,8 +3297,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="41" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3325,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="41" t="s">
         <v>8</v>
       </c>
@@ -3338,8 +3353,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="47" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3450,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3467,7 +3482,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -3497,7 +3512,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
@@ -3524,7 +3539,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3551,7 +3566,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3581,7 +3596,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
@@ -3611,7 +3626,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
@@ -3638,7 +3653,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
@@ -3665,7 +3680,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3695,7 +3710,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3740,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
@@ -3752,7 +3767,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
@@ -3779,7 +3794,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -3808,7 +3823,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="41" t="s">
         <v>19</v>
       </c>
@@ -3835,7 +3850,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="41" t="s">
         <v>27</v>
       </c>
@@ -3862,7 +3877,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="41" t="s">
         <v>30</v>
       </c>
@@ -3889,7 +3904,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="41" t="s">
         <v>20</v>
       </c>
@@ -3916,7 +3931,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
@@ -3943,7 +3958,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="41" t="s">
         <v>28</v>
       </c>
@@ -3970,7 +3985,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +4012,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="41" t="s">
         <v>22</v>
       </c>
@@ -4024,7 +4039,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="41" t="s">
         <v>23</v>
       </c>
@@ -4051,7 +4066,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="41" t="s">
         <v>29</v>
       </c>
@@ -4078,7 +4093,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="47" t="s">
         <v>32</v>
       </c>
@@ -4299,192 +4314,244 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0078E1D9-9F40-461D-84E9-36F857BBEF1B}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="94">
+        <v>27097</v>
+      </c>
+      <c r="C2" s="91">
+        <f>AVERAGE(B2:B6) / 1000</f>
+        <v>27.248000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="96">
+        <v>26809</v>
+      </c>
+      <c r="C3" s="92"/>
+    </row>
+    <row r="4" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="96">
+        <v>27958</v>
+      </c>
+      <c r="C4" s="92"/>
+    </row>
+    <row r="5" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="96">
+        <v>26719</v>
+      </c>
+      <c r="C5" s="92"/>
+    </row>
+    <row r="6" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="97">
+        <v>27657</v>
+      </c>
+      <c r="C6" s="93"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>393408</v>
+      </c>
+      <c r="C7" s="91">
+        <f>AVERAGE(B7:B11) / 1000</f>
+        <v>393.73579999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8">
+        <v>393693</v>
+      </c>
+      <c r="C8" s="92"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="89"/>
+      <c r="B9">
+        <v>393577</v>
+      </c>
+      <c r="C9" s="92"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10">
+        <v>393681</v>
+      </c>
+      <c r="C10" s="92"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="90"/>
+      <c r="B11" s="5">
+        <v>394320</v>
+      </c>
+      <c r="C11" s="93"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>154045</v>
+      </c>
+      <c r="C12" s="91">
+        <f t="shared" ref="C12" si="0">AVERAGE(B12:B16) / 1000</f>
+        <v>153.73740000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13">
+        <v>153470</v>
+      </c>
+      <c r="C13" s="92"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14">
+        <v>154048</v>
+      </c>
+      <c r="C14" s="92"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15">
+        <v>153539</v>
+      </c>
+      <c r="C15" s="92"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="5">
+        <v>153585</v>
+      </c>
+      <c r="C16" s="93"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38734</v>
+      </c>
+      <c r="C17" s="91">
+        <f t="shared" ref="C17" si="1">AVERAGE(B17:B21) / 1000</f>
+        <v>38.290800000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18">
+        <v>38106</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="89"/>
+      <c r="B19">
+        <v>38425</v>
+      </c>
+      <c r="C19" s="92"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20">
+        <v>38395</v>
+      </c>
+      <c r="C20" s="92"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="5">
+        <v>37794</v>
+      </c>
+      <c r="C21" s="93"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2">
-        <v>393408</v>
-      </c>
-      <c r="C2" s="89">
-        <f>AVERAGE(B2:B6) / 1000</f>
-        <v>393.73579999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91">
-        <v>393693</v>
-      </c>
-      <c r="C3" s="92"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91">
-        <v>393577</v>
-      </c>
-      <c r="C4" s="92"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91">
-        <v>393681</v>
-      </c>
-      <c r="C5" s="92"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="5">
-        <v>394320</v>
-      </c>
-      <c r="C6" s="94"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2">
-        <v>154045</v>
-      </c>
-      <c r="C7" s="89">
-        <f t="shared" ref="C7" si="0">AVERAGE(B7:B11) / 1000</f>
-        <v>153.73740000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91">
-        <v>153470</v>
-      </c>
-      <c r="C8" s="92"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91">
-        <v>154048</v>
-      </c>
-      <c r="C9" s="92"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91">
-        <v>153539</v>
-      </c>
-      <c r="C10" s="92"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="5">
-        <v>153585</v>
-      </c>
-      <c r="C11" s="94"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2">
-        <v>38734</v>
-      </c>
-      <c r="C12" s="89">
-        <f t="shared" ref="C12" si="1">AVERAGE(B12:B16) / 1000</f>
-        <v>38.290800000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91">
-        <v>38106</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="F13" s="85"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91">
-        <v>38425</v>
-      </c>
-      <c r="C14" s="92"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91">
-        <v>38395</v>
-      </c>
-      <c r="C15" s="92"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="5">
-        <v>37794</v>
-      </c>
-      <c r="C16" s="94"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="89" t="e">
-        <f>AVERAGE(B17:B21) / 1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="94"/>
+      <c r="B22" s="2">
+        <v>155680</v>
+      </c>
+      <c r="C22" s="91">
+        <f>AVERAGE(B22:B26) / 1000</f>
+        <v>154.821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23">
+        <v>154584</v>
+      </c>
+      <c r="C23" s="92"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24">
+        <v>154733</v>
+      </c>
+      <c r="C24" s="92"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25">
+        <v>154570</v>
+      </c>
+      <c r="C25" s="92"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
+      <c r="B26" s="5">
+        <v>154538</v>
+      </c>
+      <c r="C26" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
